--- a/easing.xlsx
+++ b/easing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\arduino_roller\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475"/>
+    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="v0">Sheet1!$B$1</definedName>
     <definedName name="vel0">Sheet1!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -64,12 +69,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +120,7 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -123,9 +128,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -160,7 +162,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -179,19 +181,42 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -306,83 +331,84 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.200000000000001</c:v>
+                  <c:v>-10.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.400000000000002</c:v>
+                  <c:v>-20.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.599999999999998</c:v>
+                  <c:v>-30.599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.800000000000004</c:v>
+                  <c:v>-40.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.199999999999996</c:v>
+                  <c:v>-61.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.400000000000006</c:v>
+                  <c:v>-71.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.600000000000009</c:v>
+                  <c:v>-81.600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.8</c:v>
+                  <c:v>-91.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102</c:v>
+                  <c:v>-102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112.2</c:v>
+                  <c:v>-112.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122.39999999999999</c:v>
+                  <c:v>-122.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>132.6</c:v>
+                  <c:v>-132.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>142.80000000000001</c:v>
+                  <c:v>-142.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>153</c:v>
+                  <c:v>-153</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>163.20000000000002</c:v>
+                  <c:v>-163.20000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>173.4</c:v>
+                  <c:v>-173.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183.6</c:v>
+                  <c:v>-183.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>193.8</c:v>
+                  <c:v>-193.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>204</c:v>
+                  <c:v>-204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>214.2</c:v>
+                  <c:v>-214.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>224.4</c:v>
+                  <c:v>-224.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>234.60000000000002</c:v>
+                  <c:v>-234.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>244.79999999999998</c:v>
+                  <c:v>-244.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>255</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -405,89 +431,90 @@
             <c:numRef>
               <c:f>Sheet1!$D$10:$D$35</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0053755824040707</c:v>
+                  <c:v>-1.0053755824040707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0056469560995396</c:v>
+                  <c:v>-4.0056469560995396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9534980492479548</c:v>
+                  <c:v>-8.9534980492479548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.770898294407388</c:v>
+                  <c:v>-15.770898294407388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.350333217194205</c:v>
+                  <c:v>-24.350333217194205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.556500003770026</c:v>
+                  <c:v>-34.556500003770026</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.228441307042075</c:v>
+                  <c:v>-46.228441307042075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.182083640177936</c:v>
+                  <c:v>-59.182083640177936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73.213140325453253</c:v>
+                  <c:v>-73.213140325453253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>88.100333217194205</c:v>
+                  <c:v>-88.100333217194205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.6088823903201</c:v>
+                  <c:v>-103.6088823903201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119.49420876001253</c:v>
+                  <c:v>-119.49420876001253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135.50579123998747</c:v>
+                  <c:v>-135.50579123998747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>151.39111760967992</c:v>
+                  <c:v>-151.39111760967992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>166.89966678280581</c:v>
+                  <c:v>-166.89966678280581</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>181.78685967454678</c:v>
+                  <c:v>-181.78685967454678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>195.81791635982211</c:v>
+                  <c:v>-195.81791635982211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208.77155869295794</c:v>
+                  <c:v>-208.77155869295794</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>220.44349999622995</c:v>
+                  <c:v>-220.44349999622995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>230.64966678280581</c:v>
+                  <c:v>-230.64966678280581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>239.2291017055926</c:v>
+                  <c:v>-239.2291017055926</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>246.04650195075203</c:v>
+                  <c:v>-246.04650195075203</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250.99435304390045</c:v>
+                  <c:v>-250.99435304390045</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>253.9946244175959</c:v>
+                  <c:v>-253.9946244175959</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>255</c:v>
+                  <c:v>-255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -598,35 +625,51 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="54737920"/>
-        <c:axId val="54858112"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="252134584"/>
+        <c:axId val="252134976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54737920"/>
+        <c:axId val="252134584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54858112"/>
+        <c:crossAx val="252134976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54858112"/>
+        <c:axId val="252134976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54737920"/>
+        <c:crossAx val="252134584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -634,8 +677,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -682,20 +728,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A9:E35" totalsRowShown="0">
-  <autoFilter ref="A9:E35">
-    <filterColumn colId="4"/>
-  </autoFilter>
+  <autoFilter ref="A9:E35"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="t" dataDxfId="0">
+    <tableColumn id="1" name="t" dataDxfId="3">
       <calculatedColumnFormula>t_0+((t_1-t_0)/25)*(ROW()-10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="tprog" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="2" name="tprog" dataDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>(A10-t_0)/t_delta</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="v_linear" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="3" name="v_linear" dataDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>v_0+(v_delta * B10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="v_sin" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="4" name="v_sin" dataDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>(SIN(B10*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="test"/>
@@ -747,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,9 +823,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,6 +858,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -988,20 +1034,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1009,15 +1055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1033,19 +1079,19 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f>v_1-v_0</f>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1054,10 +1100,10 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,547 +1120,547 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" ref="A10:A35" si="0">t_0+((t_1-t_0)/25)*(ROW()-10)</f>
         <v>0</v>
       </c>
       <c r="B10" s="4">
-        <f>(A10-t_0)/t_delta</f>
+        <f t="shared" ref="B10:B35" si="1">(A10-t_0)/t_delta</f>
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <f>v_0+(v_delta * B10)</f>
+        <f t="shared" ref="C10:C35" si="2">v_0+(v_delta * B10)</f>
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <f>(SIN(B10*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
+        <f t="shared" ref="D10:D35" si="3">(SIN(B10*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
         <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="B11" s="4">
-        <f>(A11-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
       <c r="C11" s="6">
-        <f>v_0+(v_delta * B11)</f>
-        <v>10.200000000000001</v>
+        <f t="shared" si="2"/>
+        <v>-10.200000000000001</v>
       </c>
       <c r="D11" s="5">
-        <f>(SIN(B11*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>1.0053755824040707</v>
+        <f t="shared" si="3"/>
+        <v>-1.0053755824040707</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="B12" s="4">
-        <f>(A12-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="C12" s="6">
-        <f>v_0+(v_delta * B12)</f>
-        <v>20.400000000000002</v>
+        <f t="shared" si="2"/>
+        <v>-20.400000000000002</v>
       </c>
       <c r="D12" s="5">
-        <f>(SIN(B12*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>4.0056469560995396</v>
+        <f t="shared" si="3"/>
+        <v>-4.0056469560995396</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="B13" s="4">
-        <f>(A13-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <f>v_0+(v_delta * B13)</f>
-        <v>30.599999999999998</v>
+        <f t="shared" si="2"/>
+        <v>-30.599999999999998</v>
       </c>
       <c r="D13" s="5">
-        <f>(SIN(B13*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>8.9534980492479548</v>
+        <f t="shared" si="3"/>
+        <v>-8.9534980492479548</v>
       </c>
       <c r="E13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="B14" s="4">
-        <f>(A14-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
       <c r="C14" s="6">
-        <f>v_0+(v_delta * B14)</f>
-        <v>40.800000000000004</v>
+        <f t="shared" si="2"/>
+        <v>-40.800000000000004</v>
       </c>
       <c r="D14" s="5">
-        <f>(SIN(B14*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>15.770898294407388</v>
+        <f t="shared" si="3"/>
+        <v>-15.770898294407388</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <f>(A15-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="C15" s="6">
-        <f>v_0+(v_delta * B15)</f>
-        <v>51</v>
+        <f t="shared" si="2"/>
+        <v>-51</v>
       </c>
       <c r="D15" s="5">
-        <f>(SIN(B15*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>24.350333217194205</v>
+        <f t="shared" si="3"/>
+        <v>-24.350333217194205</v>
       </c>
       <c r="E15">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="B16" s="4">
-        <f>(A16-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="C16" s="6">
-        <f>v_0+(v_delta * B16)</f>
-        <v>61.199999999999996</v>
+        <f t="shared" si="2"/>
+        <v>-61.199999999999996</v>
       </c>
       <c r="D16" s="5">
-        <f>(SIN(B16*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>34.556500003770026</v>
+        <f t="shared" si="3"/>
+        <v>-34.556500003770026</v>
       </c>
       <c r="E16">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="B17" s="4">
-        <f>(A17-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="C17" s="6">
-        <f>v_0+(v_delta * B17)</f>
-        <v>71.400000000000006</v>
+        <f t="shared" si="2"/>
+        <v>-71.400000000000006</v>
       </c>
       <c r="D17" s="5">
-        <f>(SIN(B17*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>46.228441307042075</v>
+        <f t="shared" si="3"/>
+        <v>-46.228441307042075</v>
       </c>
       <c r="E17">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="B18" s="4">
-        <f>(A18-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
       <c r="C18" s="6">
-        <f>v_0+(v_delta * B18)</f>
-        <v>81.600000000000009</v>
+        <f t="shared" si="2"/>
+        <v>-81.600000000000009</v>
       </c>
       <c r="D18" s="5">
-        <f>(SIN(B18*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>59.182083640177936</v>
+        <f t="shared" si="3"/>
+        <v>-59.182083640177936</v>
       </c>
       <c r="E18">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="B19" s="4">
-        <f>(A19-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="C19" s="6">
-        <f>v_0+(v_delta * B19)</f>
-        <v>91.8</v>
+        <f t="shared" si="2"/>
+        <v>-91.8</v>
       </c>
       <c r="D19" s="5">
-        <f>(SIN(B19*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>73.213140325453253</v>
+        <f t="shared" si="3"/>
+        <v>-73.213140325453253</v>
       </c>
       <c r="E19">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="B20" s="4">
-        <f>(A20-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="C20" s="6">
-        <f>v_0+(v_delta * B20)</f>
-        <v>102</v>
+        <f t="shared" si="2"/>
+        <v>-102</v>
       </c>
       <c r="D20" s="5">
-        <f>(SIN(B20*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>88.100333217194205</v>
+        <f t="shared" si="3"/>
+        <v>-88.100333217194205</v>
       </c>
       <c r="E20">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
       <c r="B21" s="4">
-        <f>(A21-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
       <c r="C21" s="6">
-        <f>v_0+(v_delta * B21)</f>
-        <v>112.2</v>
+        <f t="shared" si="2"/>
+        <v>-112.2</v>
       </c>
       <c r="D21" s="5">
-        <f>(SIN(B21*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>103.6088823903201</v>
+        <f t="shared" si="3"/>
+        <v>-103.6088823903201</v>
       </c>
       <c r="E21">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="B22" s="4">
-        <f>(A22-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="C22" s="6">
-        <f>v_0+(v_delta * B22)</f>
-        <v>122.39999999999999</v>
+        <f t="shared" si="2"/>
+        <v>-122.39999999999999</v>
       </c>
       <c r="D22" s="5">
-        <f>(SIN(B22*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>119.49420876001253</v>
+        <f t="shared" si="3"/>
+        <v>-119.49420876001253</v>
       </c>
       <c r="E22">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>2600</v>
       </c>
       <c r="B23" s="4">
-        <f>(A23-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
       <c r="C23" s="6">
-        <f>v_0+(v_delta * B23)</f>
-        <v>132.6</v>
+        <f t="shared" si="2"/>
+        <v>-132.6</v>
       </c>
       <c r="D23" s="5">
-        <f>(SIN(B23*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>135.50579123998747</v>
+        <f t="shared" si="3"/>
+        <v>-135.50579123998747</v>
       </c>
       <c r="E23">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="B24" s="4">
-        <f>(A24-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="C24" s="6">
-        <f>v_0+(v_delta * B24)</f>
-        <v>142.80000000000001</v>
+        <f t="shared" si="2"/>
+        <v>-142.80000000000001</v>
       </c>
       <c r="D24" s="5">
-        <f>(SIN(B24*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>151.39111760967992</v>
+        <f t="shared" si="3"/>
+        <v>-151.39111760967992</v>
       </c>
       <c r="E24">
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="B25" s="4">
-        <f>(A25-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="C25" s="6">
-        <f>v_0+(v_delta * B25)</f>
-        <v>153</v>
+        <f t="shared" si="2"/>
+        <v>-153</v>
       </c>
       <c r="D25" s="5">
-        <f>(SIN(B25*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>166.89966678280581</v>
+        <f t="shared" si="3"/>
+        <v>-166.89966678280581</v>
       </c>
       <c r="E25">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>3200</v>
       </c>
       <c r="B26" s="4">
-        <f>(A26-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
       <c r="C26" s="6">
-        <f>v_0+(v_delta * B26)</f>
-        <v>163.20000000000002</v>
+        <f t="shared" si="2"/>
+        <v>-163.20000000000002</v>
       </c>
       <c r="D26" s="5">
-        <f>(SIN(B26*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>181.78685967454678</v>
+        <f t="shared" si="3"/>
+        <v>-181.78685967454678</v>
       </c>
       <c r="E26">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>3400</v>
       </c>
       <c r="B27" s="4">
-        <f>(A27-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
       <c r="C27" s="6">
-        <f>v_0+(v_delta * B27)</f>
-        <v>173.4</v>
+        <f t="shared" si="2"/>
+        <v>-173.4</v>
       </c>
       <c r="D27" s="5">
-        <f>(SIN(B27*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>195.81791635982211</v>
+        <f t="shared" si="3"/>
+        <v>-195.81791635982211</v>
       </c>
       <c r="E27">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="B28" s="4">
-        <f>(A28-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="C28" s="6">
-        <f>v_0+(v_delta * B28)</f>
-        <v>183.6</v>
+        <f t="shared" si="2"/>
+        <v>-183.6</v>
       </c>
       <c r="D28" s="5">
-        <f>(SIN(B28*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>208.77155869295794</v>
+        <f t="shared" si="3"/>
+        <v>-208.77155869295794</v>
       </c>
       <c r="E28">
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
       <c r="B29" s="4">
-        <f>(A29-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
       <c r="C29" s="6">
-        <f>v_0+(v_delta * B29)</f>
-        <v>193.8</v>
+        <f t="shared" si="2"/>
+        <v>-193.8</v>
       </c>
       <c r="D29" s="5">
-        <f>(SIN(B29*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>220.44349999622995</v>
+        <f t="shared" si="3"/>
+        <v>-220.44349999622995</v>
       </c>
       <c r="E29">
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="B30" s="4">
-        <f>(A30-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="C30" s="6">
-        <f>v_0+(v_delta * B30)</f>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>-204</v>
       </c>
       <c r="D30" s="5">
-        <f>(SIN(B30*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>230.64966678280581</v>
+        <f t="shared" si="3"/>
+        <v>-230.64966678280581</v>
       </c>
       <c r="E30">
         <v>231</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="B31" s="4">
-        <f>(A31-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
       <c r="C31" s="6">
-        <f>v_0+(v_delta * B31)</f>
-        <v>214.2</v>
+        <f t="shared" si="2"/>
+        <v>-214.2</v>
       </c>
       <c r="D31" s="5">
-        <f>(SIN(B31*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>239.2291017055926</v>
+        <f t="shared" si="3"/>
+        <v>-239.2291017055926</v>
       </c>
       <c r="E31">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="B32" s="4">
-        <f>(A32-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
       <c r="C32" s="6">
-        <f>v_0+(v_delta * B32)</f>
-        <v>224.4</v>
+        <f t="shared" si="2"/>
+        <v>-224.4</v>
       </c>
       <c r="D32" s="5">
-        <f>(SIN(B32*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>246.04650195075203</v>
+        <f t="shared" si="3"/>
+        <v>-246.04650195075203</v>
       </c>
       <c r="E32">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>4600</v>
       </c>
       <c r="B33" s="4">
-        <f>(A33-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.92</v>
       </c>
       <c r="C33" s="6">
-        <f>v_0+(v_delta * B33)</f>
-        <v>234.60000000000002</v>
+        <f t="shared" si="2"/>
+        <v>-234.60000000000002</v>
       </c>
       <c r="D33" s="5">
-        <f>(SIN(B33*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>250.99435304390045</v>
+        <f t="shared" si="3"/>
+        <v>-250.99435304390045</v>
       </c>
       <c r="E33">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>4800</v>
       </c>
       <c r="B34" s="4">
-        <f>(A34-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
       <c r="C34" s="6">
-        <f>v_0+(v_delta * B34)</f>
-        <v>244.79999999999998</v>
+        <f t="shared" si="2"/>
+        <v>-244.79999999999998</v>
       </c>
       <c r="D34" s="5">
-        <f>(SIN(B34*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>253.9946244175959</v>
+        <f t="shared" si="3"/>
+        <v>-253.9946244175959</v>
       </c>
       <c r="E34">
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <f>t_0+((t_1-t_0)/25)*(ROW()-10)</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="B35" s="4">
-        <f>(A35-t_0)/t_delta</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C35" s="6">
-        <f>v_0+(v_delta * B35)</f>
-        <v>255</v>
+        <f t="shared" si="2"/>
+        <v>-255</v>
       </c>
       <c r="D35" s="5">
-        <f>(SIN(B35*PI()-PI()*0.5)*v_delta/2)+(v_delta/2)+v_0</f>
-        <v>255</v>
+        <f t="shared" si="3"/>
+        <v>-255</v>
       </c>
       <c r="E35">
         <v>255</v>
@@ -1631,24 +1677,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
